--- a/CreateDB_NC/OutputData/PercentageHurricaneDamage.xlsx
+++ b/CreateDB_NC/OutputData/PercentageHurricaneDamage.xlsx
@@ -503,38 +503,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BLQ_ST_Existing</t>
+          <t>BATT_2H_NEW</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.0126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005</v>
+        <v>0.0411</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0501</v>
+        <v>0.1164</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0974</v>
+        <v>0.1962</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0081</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0278</v>
+        <v>0.0793</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batt_2h_New</t>
+          <t>BATT_4H_NEW</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -587,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Batt_4h_New</t>
+          <t>BATT_6H_NEW</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -629,7 +629,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Batt_6h_New</t>
+          <t>BATT_8H_NEW</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -671,38 +671,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Batt_8h_New</t>
+          <t>BIOMASS_CC90_NEW</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0126</v>
+        <v>0.0004</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0411</v>
+        <v>0.0103</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1164</v>
+        <v>0.0633</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1962</v>
+        <v>0.14</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0081</v>
+        <v>0.0001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0793</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="7">
@@ -713,7 +713,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Biomass_CCS90_New</t>
+          <t>BIOMASS_NEW</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -755,7 +755,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Biomass_New</t>
+          <t>BLQ_ST_EXISTING</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -768,25 +768,25 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0103</v>
+        <v>0.005</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0633</v>
+        <v>0.0501</v>
       </c>
       <c r="I8" t="n">
-        <v>0.14</v>
+        <v>0.0974</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0397</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="9">
@@ -797,7 +797,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CO2_Storage</t>
+          <t>CO2_STORAGE</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coal_95CC_New</t>
+          <t>COAL_95CC_NEW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -881,7 +881,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Coal_99CC_New</t>
+          <t>COAL_99CC_NEW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Coal_New</t>
+          <t>COAL_NEW</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -965,7 +965,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CommericalPV_New</t>
+          <t>DFO_IC_EXISTING</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -978,25 +978,25 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.0051</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0567</v>
+        <v>0.0319</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1035</v>
+        <v>0.0648</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0329</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="14">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DFO_IC_Existing</t>
+          <t>DISTRIBUTION</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1017,28 +1017,28 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.0165</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0051</v>
+        <v>0.0558</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0319</v>
+        <v>0.0985</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0648</v>
+        <v>0.1361</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.0223</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0192</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="15">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>FT_BIOMASS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1059,28 +1059,28 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0165</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0558</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0985</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1361</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0223</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FT_BIOMASS</t>
+          <t>FT_COAL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FT_Coal</t>
+          <t>FT_NG</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FT_NG</t>
+          <t>FT_NUCLEAR</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FT_Nuclear</t>
+          <t>FT_PETROLEUM</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FT_Petroleum</t>
+          <t>NG_CC_EXISTING</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1275,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.0571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.1383</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="21">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LandWind_New_C8</t>
+          <t>NG_F-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1311,28 +1311,28 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0019</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0174</v>
+        <v>0.0004</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0489</v>
+        <v>0.0103</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1847</v>
+        <v>0.0633</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3518</v>
+        <v>0.14</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.007</v>
+        <v>0.0001</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1207</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="22">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NG_CC_Existing</t>
+          <t>NG_F-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1356,25 +1356,25 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0075</v>
+        <v>0.0103</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0571</v>
+        <v>0.0633</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1383</v>
+        <v>0.14</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0363</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="23">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CC_95CC_New</t>
+          <t>NG_F-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CC_97CC_New</t>
+          <t>NG_F-FRAME_CT_NEW</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CC_New</t>
+          <t>NG_GT_EXISTING</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1482,25 +1482,25 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0004</v>
+        <v>0.0008</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0103</v>
+        <v>0.0141</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0633</v>
+        <v>0.078</v>
       </c>
       <c r="I25" t="n">
-        <v>0.14</v>
+        <v>0.1751</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0397</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="26">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CT_New</t>
+          <t>NG_H-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NG_GT_Existing</t>
+          <t>NG_H-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1566,25 +1566,25 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0008</v>
+        <v>0.0004</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0141</v>
+        <v>0.0103</v>
       </c>
       <c r="H27" t="n">
-        <v>0.078</v>
+        <v>0.0633</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1751</v>
+        <v>0.14</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0502</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="28">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NG_H-Frame_CC_95CC_New</t>
+          <t>NG_H-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NG_H-Frame_CC_97CC_New</t>
+          <t>NUCLEAR-AP1000_NEW</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1650,25 +1650,25 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0103</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0633</v>
+        <v>0.0021</v>
       </c>
       <c r="I29" t="n">
-        <v>0.14</v>
+        <v>0.0114</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0397</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="30">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NG_H-Frame_CC_New</t>
+          <t>NUCLEAR-SMR_NEW</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1692,25 +1692,25 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0103</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0633</v>
+        <v>0.0021</v>
       </c>
       <c r="I30" t="n">
-        <v>0.14</v>
+        <v>0.0114</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0397</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="31">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NUC_ST_Existing</t>
+          <t>NUC_ST_EXISTING</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nuclear-AP1000_New</t>
+          <t>PV-COMMERCIAL_NEW</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1776,25 +1776,25 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0021</v>
+        <v>0.0567</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0114</v>
+        <v>0.1035</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L32" t="n">
-        <v>0.002</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="33">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nuclear-SMR_New</t>
+          <t>PV-RESIDENTIAL_NEW</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1818,25 +1818,25 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0021</v>
+        <v>0.0567</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0114</v>
+        <v>0.1035</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L33" t="n">
-        <v>0.002</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="34">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>OffshoreWind_New_C6</t>
+          <t>PV-UTILITY_NEW</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1857,28 +1857,28 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0043</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0219</v>
+        <v>0.0002</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0633</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2108</v>
+        <v>0.0567</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3769</v>
+        <v>0.1035</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0101</v>
+        <v>0.0001</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1394</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="35">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ResidentialPV_New</t>
+          <t>SUN_PV_EXISTING</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1902,25 +1902,25 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0567</v>
+        <v>0.0386</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1035</v>
+        <v>0.0704</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0329</v>
+        <v>0.0187</v>
       </c>
     </row>
     <row r="36">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SUN_PV_Existing</t>
+          <t>TRANSMISSION_REGIONAL</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1941,28 +1941,28 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.0165</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0004</v>
+        <v>0.0558</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0386</v>
+        <v>0.0985</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0704</v>
+        <v>0.1361</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0223</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0187</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="37">
@@ -1973,38 +1973,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transmission_Regional</t>
+          <t>WAT_HY_NEW</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0165</v>
+        <v>0.0057</v>
       </c>
       <c r="F37" t="n">
-        <v>0.034</v>
+        <v>0.0121</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0558</v>
+        <v>0.0392</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0985</v>
+        <v>0.1132</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1361</v>
+        <v>0.1894</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0223</v>
+        <v>0.0078</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0765</v>
+        <v>0.0764</v>
       </c>
     </row>
     <row r="38">
@@ -2015,38 +2015,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UtilityPV_New</t>
+          <t>WAT_PS_NEW</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0002</v>
+        <v>0.0121</v>
       </c>
       <c r="G38" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.0392</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0567</v>
+        <v>0.1132</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1035</v>
+        <v>0.1894</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0001</v>
+        <v>0.0078</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0329</v>
+        <v>0.0764</v>
       </c>
     </row>
     <row r="39">
@@ -2057,38 +2057,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WAT_HY_New</t>
+          <t>WIND-LAND-C8_NEW</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0057</v>
+        <v>0.0019</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0121</v>
+        <v>0.0174</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0392</v>
+        <v>0.0489</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1132</v>
+        <v>0.1847</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1894</v>
+        <v>0.3518</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0078</v>
+        <v>0.007</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0764</v>
+        <v>0.1207</v>
       </c>
     </row>
     <row r="40">
@@ -2099,38 +2099,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WAT_PS_New</t>
+          <t>WIND-OFFSHORE-C6_NEW</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0057</v>
+        <v>0.0043</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0121</v>
+        <v>0.0219</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0392</v>
+        <v>0.0633</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1132</v>
+        <v>0.2108</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1894</v>
+        <v>0.3769</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0078</v>
+        <v>0.0101</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0764</v>
+        <v>0.1394</v>
       </c>
     </row>
     <row r="41">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transmission_Interregional</t>
+          <t>TRANSMISSION_INTERREGIONAL</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transmission_Interregional</t>
+          <t>TRANSMISSION_INTERREGIONAL</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AB_ST_Existing</t>
+          <t>AB_ST_EXISTING</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2267,38 +2267,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BLQ_ST_Existing</t>
+          <t>BATT_2H_NEW</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0005</v>
+        <v>0.014</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0038</v>
+        <v>0.0283</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="45">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Batt_2h_New</t>
+          <t>BATT_4H_NEW</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Batt_4h_New</t>
+          <t>BATT_6H_NEW</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Batt_6h_New</t>
+          <t>BATT_8H_NEW</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2435,38 +2435,38 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Batt_8h_New</t>
+          <t>BIOMASS_CC90_NEW</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0063</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0059</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0065</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.014</v>
+        <v>0.0016</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0283</v>
+        <v>0.0066</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0111</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="49">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Biomass_CCS90_New</t>
+          <t>BIOMASS_NEW</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Biomass_New</t>
+          <t>BLQ_ST_EXISTING</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0016</v>
+        <v>0.0005</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0066</v>
+        <v>0.0038</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0012</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CO2_Storage</t>
+          <t>CO2_STORAGE</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Coal_95CC_New</t>
+          <t>COAL_95CC_NEW</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Coal_99CC_New</t>
+          <t>COAL_99CC_NEW</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Coal_New</t>
+          <t>COAL_NEW</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CommericalPV_New</t>
+          <t>DFO_GT_EXISTING</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2748,19 +2748,19 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
         <v>0.0012</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.0011</v>
       </c>
     </row>
     <row r="56">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DFO_GT_Existing</t>
+          <t>DFO_IC_EXISTING</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2790,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="I56" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0056</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0012</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="57">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DFO_IC_Existing</t>
+          <t>DISTRIBUTION</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2823,28 +2823,28 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.0163</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0002</v>
+        <v>0.0318</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0056</v>
+        <v>0.0463</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0007</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="58">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>FT_BIOMASS</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2865,28 +2865,28 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0069</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0163</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0318</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0463</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FT_BIOMASS</t>
+          <t>FT_COAL</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FT_Coal</t>
+          <t>FT_NG</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FT_NG</t>
+          <t>FT_NUCLEAR</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FT_Nuclear</t>
+          <t>FT_PETROLEUM</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FT_Petroleum</t>
+          <t>LFG_IC_EXISTING</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3084,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.0145</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="64">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LFG_IC_Existing</t>
+          <t>MWH_BA1H_EXISTING</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0037</v>
+        <v>0.0089</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0145</v>
+        <v>0.0262</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0027</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="65">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LandWind_New_C8</t>
+          <t>NG_CC_EXISTING</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -3162,25 +3162,25 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.007900000000000001</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0274</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0688</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MWH_BA1h_Existing</t>
+          <t>NG_F-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0089</v>
+        <v>0.0016</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0262</v>
+        <v>0.0066</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0055</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="67">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NG_CC_Existing</t>
+          <t>NG_F-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="68">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CC_95CC_New</t>
+          <t>NG_F-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CC_97CC_New</t>
+          <t>NG_F-FRAME_CT_NEW</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CC_New</t>
+          <t>NG_GT_EXISTING</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3378,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CT_New</t>
+          <t>NG_H-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NG_GT_Existing</t>
+          <t>NG_H-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3462,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="73">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NG_H-Frame_CC_95CC_New</t>
+          <t>NG_H-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NG_H-Frame_CC_97CC_New</t>
+          <t>NUCLEAR-AP1000_NEW</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3546,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NG_H-Frame_CC_New</t>
+          <t>NUCLEAR-SMR_NEW</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nuclear-AP1000_New</t>
+          <t>PV-COMMERCIAL_NEW</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="77">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nuclear-SMR_New</t>
+          <t>PV-RESIDENTIAL_NEW</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="78">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ResidentialPV_New</t>
+          <t>PV-UTILITY_NEW</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SUN_PV_Existing</t>
+          <t>SUN_PV_EXISTING</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transmission_Regional</t>
+          <t>TRANSMISSION_REGIONAL</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3821,38 +3821,38 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>UtilityPV_New</t>
+          <t>WAT_HY_NEW</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>0.0043</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.0064</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0012</v>
+        <v>0.0136</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0063</v>
+        <v>0.0269</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0011</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="82">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>WAT_HY_New</t>
+          <t>WAT_PS_NEW</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3905,38 +3905,38 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>WAT_PS_New</t>
+          <t>WDS_ST_EXISTING</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.0043</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0064</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0136</v>
+        <v>0.0026</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0269</v>
+        <v>0.0091</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0108</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="84">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>WDS_ST_Existing</t>
+          <t>WH_ST_EXISTING</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3966,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0026</v>
+        <v>0.0051</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0091</v>
+        <v>0.0212</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0018</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="85">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WH_ST_Existing</t>
+          <t>WIND-LAND-C8_NEW</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -4002,25 +4002,25 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0051</v>
+        <v>0.0274</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0212</v>
+        <v>0.0688</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0039</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="86">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WND_WT_Existing</t>
+          <t>WND_WT_EXISTING</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transmission_Interregional</t>
+          <t>TRANSMISSION_INTERREGIONAL</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transmission_Interregional</t>
+          <t>TRANSMISSION_INTERREGIONAL</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -4157,38 +4157,38 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BIT_ST_Existing</t>
+          <t>BATT_2H_NEW</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="90">
@@ -4199,38 +4199,38 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BLQ_ST_Existing</t>
+          <t>BATT_4H_NEW</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="91">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Batt_2h_New</t>
+          <t>BATT_6H_NEW</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Batt_4h_New</t>
+          <t>BATT_8H_NEW</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -4325,38 +4325,38 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Batt_6h_New</t>
+          <t>BIOMASS_CC90_NEW</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0041</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0056</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0062</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0062</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0059</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0059</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4367,38 +4367,38 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Batt_8h_New</t>
+          <t>BIOMASS_NEW</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0041</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0056</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0062</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0062</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0059</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0059</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Biomass_CCS90_New</t>
+          <t>BIT_ST_EXISTING</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Biomass_New</t>
+          <t>BLQ_ST_EXISTING</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CO2_Storage</t>
+          <t>CO2_STORAGE</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Coal_95CC_New</t>
+          <t>COAL_95CC_NEW</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Coal_99CC_New</t>
+          <t>COAL_99CC_NEW</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Coal_New</t>
+          <t>COAL_NEW</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CommericalPV_New</t>
+          <t>DFO_CC_EXISTING</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DFO_CC_Existing</t>
+          <t>DFO_GT_EXISTING</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DFO_GT_Existing</t>
+          <t>DFO_IC_EXISTING</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DFO_IC_Existing</t>
+          <t>DISTRIBUTION</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -4803,13 +4803,13 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="105">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>FT_BIOMASS</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -4845,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0089</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FT_BIOMASS</t>
+          <t>FT_COAL</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FT_Coal</t>
+          <t>FT_NG</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FT_NG</t>
+          <t>FT_NUCLEAR</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FT_Nuclear</t>
+          <t>FT_PETROLEUM</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FT_Petroleum</t>
+          <t>LFG_GT_EXISTING</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LFG_GT_Existing</t>
+          <t>LFG_IC_EXISTING</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LFG_IC_Existing</t>
+          <t>MWH_BA1H_EXISTING</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LandWind_New_C8</t>
+          <t>MWH_BA2H_EXISTING</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -5184,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MWH_BA1h_Existing</t>
+          <t>NG_CC_EXISTING</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MWH_BA2h_Existing</t>
+          <t>NG_F-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NG_CC_Existing</t>
+          <t>NG_F-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CC_95CC_New</t>
+          <t>NG_F-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CC_97CC_New</t>
+          <t>NG_F-FRAME_CT_NEW</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CC_New</t>
+          <t>NG_GT_EXISTING</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NG_F-Frame_CT_New</t>
+          <t>NG_H-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NG_GT_Existing</t>
+          <t>NG_H-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NG_H-Frame_CC_95CC_New</t>
+          <t>NG_H-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NG_H-Frame_CC_97CC_New</t>
+          <t>NG_ST_EXISTING</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NG_H-Frame_CC_New</t>
+          <t>NUCLEAR-AP1000_NEW</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NG_ST_Existing</t>
+          <t>NUCLEAR-SMR_NEW</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NUC_ST_Existing</t>
+          <t>NUC_ST_EXISTING</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Nuclear-AP1000_New</t>
+          <t>OBG_IC_EXISTING</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nuclear-SMR_New</t>
+          <t>PV-COMMERCIAL_NEW</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>OBG_IC_Existing</t>
+          <t>PV-RESIDENTIAL_NEW</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ResidentialPV_New</t>
+          <t>PV-UTILITY_NEW</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SUN_PV_Existing</t>
+          <t>SUN_PV_EXISTING</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transmission_Regional</t>
+          <t>TRANSMISSION_REGIONAL</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -6005,38 +6005,38 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>UtilityPV_New</t>
+          <t>WAT_HY_EXISTING</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>0.0052</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="134">
@@ -6047,35 +6047,35 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>WAT_HY_Existing</t>
+          <t>WAT_HY_NEW</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.0023</v>
+        <v>0.0027</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0031</v>
+        <v>0.0035</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0046</v>
+        <v>0.0049</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0052</v>
+        <v>0.0056</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0059</v>
+        <v>0.0058</v>
       </c>
       <c r="H134" t="n">
         <v>0.0057</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0056</v>
+        <v>0.0057</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0004</v>
+        <v>0.0005</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0048</v>
+        <v>0.0052</v>
       </c>
       <c r="L134" t="n">
         <v>0.0058</v>
@@ -6089,23 +6089,23 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>WAT_HY_New</t>
+          <t>WAT_PS_EXISTING</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.0027</v>
+        <v>0.0017</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0035</v>
+        <v>0.0026</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0049</v>
+        <v>0.0037</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0056</v>
+        <v>0.0042</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0058</v>
+        <v>0.0064</v>
       </c>
       <c r="H135" t="n">
         <v>0.0057</v>
@@ -6114,13 +6114,13 @@
         <v>0.0057</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0005</v>
+        <v>0.0003</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0052</v>
+        <v>0.0039</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0058</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="136">
@@ -6131,23 +6131,23 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>WAT_PS_Existing</t>
+          <t>WAT_PS_NEW</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.0017</v>
+        <v>0.0027</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0026</v>
+        <v>0.0035</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0037</v>
+        <v>0.0049</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0042</v>
+        <v>0.0056</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0064</v>
+        <v>0.0058</v>
       </c>
       <c r="H136" t="n">
         <v>0.0057</v>
@@ -6156,13 +6156,13 @@
         <v>0.0057</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0039</v>
+        <v>0.0052</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0061</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="137">
@@ -6173,38 +6173,38 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>WAT_PS_New</t>
+          <t>WDS_ST_EXISTING</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.0027</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0035</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0056</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0052</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>WDS_ST_Existing</t>
+          <t>WIND-LAND-C8_NEW</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -6234,10 +6234,10 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="139">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transmission_Interregional</t>
+          <t>TRANSMISSION_INTERREGIONAL</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transmission_Interregional</t>
+          <t>TRANSMISSION_INTERREGIONAL</t>
         </is>
       </c>
       <c r="C140" t="n">

--- a/CreateDB_NC/OutputData/PercentageHurricaneDamage.xlsx
+++ b/CreateDB_NC/OutputData/PercentageHurricaneDamage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>WDS_ST_EXISTING</t>
+          <t>WH_ST_EXISTING</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3924,10 +3924,10 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0026</v>
+        <v>0.0051</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0091</v>
+        <v>0.0212</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0018</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="84">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>WH_ST_EXISTING</t>
+          <t>WIND-LAND-C8_NEW</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3960,25 +3960,25 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0051</v>
+        <v>0.0274</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0212</v>
+        <v>0.0688</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0039</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="85">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WIND-LAND-C8_NEW</t>
+          <t>WND_WT_EXISTING</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -4002,73 +4002,73 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.007900000000000001</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0274</v>
+        <v>0.006</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0688</v>
+        <v>0.0137</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0204</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R2-R1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WND_WT_EXISTING</t>
+          <t>TRANSMISSION_INTERREGIONAL</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.0801</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>0.0801</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>0.0801</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>0.0801</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>0.0801</v>
       </c>
       <c r="H86" t="n">
-        <v>0.006</v>
+        <v>0.0801</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0137</v>
+        <v>0.0801</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>0.0801</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0032</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>R2-R1</t>
+          <t>R2-R3</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4077,76 +4077,76 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0801</v>
+        <v>0.0143</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0801</v>
+        <v>0.0143</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0801</v>
+        <v>0.0143</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0801</v>
+        <v>0.0143</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0801</v>
+        <v>0.0143</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0801</v>
+        <v>0.0143</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0801</v>
+        <v>0.0143</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0125</v>
+        <v>0.0022</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0801</v>
+        <v>0.0143</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0801</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>R2-R3</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSMISSION_INTERREGIONAL</t>
+          <t>BATT_2H_NEW</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0143</v>
+        <v>0.0031</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0143</v>
+        <v>0.0041</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0143</v>
+        <v>0.0056</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0143</v>
+        <v>0.0062</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0143</v>
+        <v>0.0062</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0143</v>
+        <v>0.0059</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0143</v>
+        <v>0.0059</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0022</v>
+        <v>0.0005</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0143</v>
+        <v>0.0058</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0143</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="89">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BATT_2H_NEW</t>
+          <t>BATT_4H_NEW</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BATT_4H_NEW</t>
+          <t>BATT_6H_NEW</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BATT_6H_NEW</t>
+          <t>BATT_8H_NEW</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -4283,38 +4283,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BATT_8H_NEW</t>
+          <t>BIOMASS_CC90_NEW</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0041</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0056</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0062</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0062</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0059</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0059</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BIOMASS_CC90_NEW</t>
+          <t>BIOMASS_NEW</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BIOMASS_NEW</t>
+          <t>BIT_ST_EXISTING</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BIT_ST_EXISTING</t>
+          <t>BLQ_ST_EXISTING</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BLQ_ST_EXISTING</t>
+          <t>CO2_STORAGE</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -4467,13 +4467,13 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="97">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CO2_STORAGE</t>
+          <t>COAL_95CC_NEW</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4509,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0089</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>COAL_95CC_NEW</t>
+          <t>COAL_99CC_NEW</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>COAL_99CC_NEW</t>
+          <t>COAL_NEW</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>COAL_NEW</t>
+          <t>DFO_CC_EXISTING</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DFO_CC_EXISTING</t>
+          <t>DFO_GT_EXISTING</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DFO_GT_EXISTING</t>
+          <t>DFO_IC_EXISTING</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DFO_IC_EXISTING</t>
+          <t>DISTRIBUTION</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4761,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="104">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DISTRIBUTION</t>
+          <t>FT_BIOMASS</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -4803,13 +4803,13 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0089</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FT_BIOMASS</t>
+          <t>FT_COAL</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FT_COAL</t>
+          <t>FT_NG</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FT_NG</t>
+          <t>FT_NUCLEAR</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FT_NUCLEAR</t>
+          <t>FT_PETROLEUM</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FT_PETROLEUM</t>
+          <t>LFG_GT_EXISTING</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LFG_GT_EXISTING</t>
+          <t>LFG_IC_EXISTING</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LFG_IC_EXISTING</t>
+          <t>MWH_BA1H_EXISTING</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MWH_BA1H_EXISTING</t>
+          <t>MWH_BA2H_EXISTING</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MWH_BA2H_EXISTING</t>
+          <t>NG_CC_EXISTING</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NG_CC_EXISTING</t>
+          <t>NG_F-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CC_95CC_NEW</t>
+          <t>NG_F-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CC_97CC_NEW</t>
+          <t>NG_F-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CC_NEW</t>
+          <t>NG_F-FRAME_CT_NEW</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CT_NEW</t>
+          <t>NG_GT_EXISTING</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NG_GT_EXISTING</t>
+          <t>NG_H-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NG_H-FRAME_CC_95CC_NEW</t>
+          <t>NG_H-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NG_H-FRAME_CC_97CC_NEW</t>
+          <t>NG_H-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NG_H-FRAME_CC_NEW</t>
+          <t>NG_ST_EXISTING</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NG_ST_EXISTING</t>
+          <t>NUCLEAR-AP1000_NEW</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NUCLEAR-AP1000_NEW</t>
+          <t>NUCLEAR-SMR_NEW</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NUCLEAR-SMR_NEW</t>
+          <t>NUC_ST_EXISTING</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NUC_ST_EXISTING</t>
+          <t>OBG_IC_EXISTING</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>OBG_IC_EXISTING</t>
+          <t>PV-COMMERCIAL_NEW</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PV-COMMERCIAL_NEW</t>
+          <t>PV-RESIDENTIAL_NEW</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PV-RESIDENTIAL_NEW</t>
+          <t>PV-UTILITY_NEW</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PV-UTILITY_NEW</t>
+          <t>SUN_PV_EXISTING</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SUN_PV_EXISTING</t>
+          <t>TRANSMISSION_REGIONAL</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5937,13 +5937,13 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="132">
@@ -5963,38 +5963,38 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSMISSION_REGIONAL</t>
+          <t>WAT_HY_EXISTING</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>0.0052</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0003</v>
+        <v>0.0059</v>
       </c>
       <c r="H132" t="n">
-        <v>0.003</v>
+        <v>0.0057</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0089</v>
+        <v>0.0056</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="L132" t="n">
-        <v>0.002</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="133">
@@ -6005,35 +6005,35 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>WAT_HY_EXISTING</t>
+          <t>WAT_HY_NEW</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.0023</v>
+        <v>0.0027</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0031</v>
+        <v>0.0035</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0046</v>
+        <v>0.0049</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0052</v>
+        <v>0.0056</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0059</v>
+        <v>0.0058</v>
       </c>
       <c r="H133" t="n">
         <v>0.0057</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0056</v>
+        <v>0.0057</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0004</v>
+        <v>0.0005</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0048</v>
+        <v>0.0052</v>
       </c>
       <c r="L133" t="n">
         <v>0.0058</v>
@@ -6047,23 +6047,23 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>WAT_HY_NEW</t>
+          <t>WAT_PS_EXISTING</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.0027</v>
+        <v>0.0017</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0035</v>
+        <v>0.0026</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0049</v>
+        <v>0.0037</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0056</v>
+        <v>0.0042</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0058</v>
+        <v>0.0064</v>
       </c>
       <c r="H134" t="n">
         <v>0.0057</v>
@@ -6072,13 +6072,13 @@
         <v>0.0057</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0005</v>
+        <v>0.0003</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0052</v>
+        <v>0.0039</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0058</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="135">
@@ -6089,23 +6089,23 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>WAT_PS_EXISTING</t>
+          <t>WAT_PS_NEW</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.0017</v>
+        <v>0.0027</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0026</v>
+        <v>0.0035</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0037</v>
+        <v>0.0049</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0042</v>
+        <v>0.0056</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0064</v>
+        <v>0.0058</v>
       </c>
       <c r="H135" t="n">
         <v>0.0057</v>
@@ -6114,13 +6114,13 @@
         <v>0.0057</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0039</v>
+        <v>0.0052</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0061</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="136">
@@ -6131,38 +6131,38 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>WAT_PS_NEW</t>
+          <t>WDS_ST_EXISTING</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.0027</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0035</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0056</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0052</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>WDS_ST_EXISTING</t>
+          <t>WIND-LAND-C8_NEW</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -6192,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -6204,55 +6204,55 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R3-R1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>WIND-LAND-C8_NEW</t>
+          <t>TRANSMISSION_INTERREGIONAL</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0001</v>
+        <v>0.0207</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0007</v>
+        <v>0.0207</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0001</v>
+        <v>0.0207</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>R3-R1</t>
+          <t>R3-R2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6261,75 +6261,33 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.0207</v>
+        <v>0.0143</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0207</v>
+        <v>0.0143</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0207</v>
+        <v>0.0143</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0207</v>
+        <v>0.0143</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0207</v>
+        <v>0.0143</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0207</v>
+        <v>0.0143</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0207</v>
+        <v>0.0143</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0032</v>
+        <v>0.0022</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0207</v>
+        <v>0.0143</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0207</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>R3-R2</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>TRANSMISSION_INTERREGIONAL</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="L140" t="n">
         <v>0.0143</v>
       </c>
     </row>

--- a/CreateDB_NC/OutputData/PercentageHurricaneDamage.xlsx
+++ b/CreateDB_NC/OutputData/PercentageHurricaneDamage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PV-COMMERCIAL_NEW</t>
+          <t>OCEAN_CURRENT_NEW</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1776,25 +1776,25 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.009299999999999999</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0567</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1035</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PV-RESIDENTIAL_NEW</t>
+          <t>PV-COMMERCIAL_NEW</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PV-UTILITY_NEW</t>
+          <t>PV-RESIDENTIAL_NEW</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SUN_PV_EXISTING</t>
+          <t>PV-UTILITY_NEW</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1902,25 +1902,25 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0004</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0386</v>
+        <v>0.0567</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0704</v>
+        <v>0.1035</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0187</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="36">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSMISSION_REGIONAL</t>
+          <t>SUN_PV_EXISTING</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1941,28 +1941,28 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0165</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0558</v>
+        <v>0.0004</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0985</v>
+        <v>0.0386</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1361</v>
+        <v>0.0704</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0223</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0765</v>
+        <v>0.0187</v>
       </c>
     </row>
     <row r="37">
@@ -1973,38 +1973,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WAT_HY_NEW</t>
+          <t>TRANSMISSION_REGIONAL</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0057</v>
+        <v>0.0165</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0121</v>
+        <v>0.034</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0392</v>
+        <v>0.0558</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1132</v>
+        <v>0.0985</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1894</v>
+        <v>0.1361</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0078</v>
+        <v>0.0223</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0764</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="38">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WAT_PS_NEW</t>
+          <t>WAT_HY_NEW</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2057,38 +2057,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WIND-LAND-C8_NEW</t>
+          <t>WAT_PS_NEW</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0019</v>
+        <v>0.0057</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0174</v>
+        <v>0.0121</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0489</v>
+        <v>0.0392</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1847</v>
+        <v>0.1132</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3518</v>
+        <v>0.1894</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="K39" t="n">
-        <v>0.007</v>
+        <v>0.0078</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1207</v>
+        <v>0.0764</v>
       </c>
     </row>
     <row r="40">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WIND-OFFSHORE-C6_NEW</t>
+          <t>WIND-LAND-C8_NEW</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2109,76 +2109,76 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0043</v>
+        <v>0.0019</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0219</v>
+        <v>0.0174</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0633</v>
+        <v>0.0489</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2108</v>
+        <v>0.1847</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3769</v>
+        <v>0.3518</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0101</v>
+        <v>0.007</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1394</v>
+        <v>0.1207</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R1-R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSMISSION_INTERREGIONAL</t>
+          <t>WIND-OFFSHORE-C6_NEW</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0801</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0801</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0801</v>
+        <v>0.0043</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0801</v>
+        <v>0.0219</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0801</v>
+        <v>0.0633</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0801</v>
+        <v>0.2108</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0801</v>
+        <v>0.3769</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0801</v>
+        <v>0.0101</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0801</v>
+        <v>0.1394</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R1-R3</t>
+          <t>R1-R2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2187,76 +2187,76 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0207</v>
+        <v>0.0801</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0207</v>
+        <v>0.0801</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0207</v>
+        <v>0.0801</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0207</v>
+        <v>0.0801</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0207</v>
+        <v>0.0801</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0207</v>
+        <v>0.0801</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0207</v>
+        <v>0.0801</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0032</v>
+        <v>0.0125</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0207</v>
+        <v>0.0801</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0207</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1-R3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AB_ST_EXISTING</t>
+          <t>TRANSMISSION_INTERREGIONAL</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
     </row>
     <row r="44">
@@ -2267,38 +2267,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BATT_2H_NEW</t>
+          <t>AB_ST_EXISTING</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0063</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0059</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0065</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0283</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BATT_4H_NEW</t>
+          <t>BATT_2H_NEW</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BATT_6H_NEW</t>
+          <t>BATT_4H_NEW</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BATT_8H_NEW</t>
+          <t>BATT_6H_NEW</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2435,38 +2435,38 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIOMASS_CC90_NEW</t>
+          <t>BATT_8H_NEW</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0016</v>
+        <v>0.014</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0066</v>
+        <v>0.0283</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0012</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="49">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIOMASS_NEW</t>
+          <t>BIOMASS_CC90_NEW</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BLQ_ST_EXISTING</t>
+          <t>BIOMASS_NEW</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0005</v>
+        <v>0.0016</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0038</v>
+        <v>0.0066</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="51">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CO2_STORAGE</t>
+          <t>BLQ_ST_EXISTING</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2571,28 +2571,28 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0069</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0163</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0318</v>
+        <v>0.0005</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0463</v>
+        <v>0.0038</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0239</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COAL_95CC_NEW</t>
+          <t>CO2_STORAGE</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2613,28 +2613,28 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.0163</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0016</v>
+        <v>0.0318</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0066</v>
+        <v>0.0463</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0012</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="53">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COAL_99CC_NEW</t>
+          <t>COAL_95CC_NEW</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COAL_NEW</t>
+          <t>COAL_99CC_NEW</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DFO_GT_EXISTING</t>
+          <t>COAL_NEW</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2748,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="I55" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0066</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DFO_IC_EXISTING</t>
+          <t>DFO_GT_EXISTING</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2790,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0056</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0007</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="57">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DISTRIBUTION</t>
+          <t>DFO_IC_EXISTING</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2823,28 +2823,28 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0069</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0163</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0318</v>
+        <v>0.0002</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0463</v>
+        <v>0.0056</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0239</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="58">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FT_BIOMASS</t>
+          <t>DISTRIBUTION</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2865,28 +2865,28 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>0.0163</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.0318</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.0463</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="59">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FT_COAL</t>
+          <t>FT_BIOMASS</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FT_NG</t>
+          <t>FT_COAL</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FT_NUCLEAR</t>
+          <t>FT_NG</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FT_PETROLEUM</t>
+          <t>FT_NUCLEAR</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LFG_IC_EXISTING</t>
+          <t>FT_PETROLEUM</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3084,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0037</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0145</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MWH_BA1H_EXISTING</t>
+          <t>LFG_IC_EXISTING</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0089</v>
+        <v>0.0037</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0262</v>
+        <v>0.0145</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0055</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="65">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NG_CC_EXISTING</t>
+          <t>MWH_BA1H_EXISTING</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.0262</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="66">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CC_95CC_NEW</t>
+          <t>NG_CC_EXISTING</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CC_97CC_NEW</t>
+          <t>NG_F-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CC_NEW</t>
+          <t>NG_F-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CT_NEW</t>
+          <t>NG_F-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NG_GT_EXISTING</t>
+          <t>NG_F-FRAME_CT_NEW</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3378,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="71">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NG_H-FRAME_CC_95CC_NEW</t>
+          <t>NG_GT_EXISTING</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3420,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NG_H-FRAME_CC_97CC_NEW</t>
+          <t>NG_H-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NG_H-FRAME_CC_NEW</t>
+          <t>NG_H-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NUCLEAR-AP1000_NEW</t>
+          <t>NG_H-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3546,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="75">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NUCLEAR-SMR_NEW</t>
+          <t>NUCLEAR-AP1000_NEW</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PV-COMMERCIAL_NEW</t>
+          <t>NUCLEAR-SMR_NEW</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0063</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PV-RESIDENTIAL_NEW</t>
+          <t>PV-COMMERCIAL_NEW</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PV-UTILITY_NEW</t>
+          <t>PV-RESIDENTIAL_NEW</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SUN_PV_EXISTING</t>
+          <t>PV-UTILITY_NEW</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3756,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.002</v>
+        <v>0.0012</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0098</v>
+        <v>0.0063</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0017</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="80">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSMISSION_REGIONAL</t>
+          <t>SUN_PV_EXISTING</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3789,28 +3789,28 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0069</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0163</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0318</v>
+        <v>0.002</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0463</v>
+        <v>0.0098</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0239</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="81">
@@ -3821,38 +3821,38 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WAT_HY_NEW</t>
+          <t>TRANSMISSION_REGIONAL</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.0043</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0057</v>
+        <v>0.0014</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0057</v>
+        <v>0.0069</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0064</v>
+        <v>0.0163</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0136</v>
+        <v>0.0318</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0269</v>
+        <v>0.0463</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0057</v>
+        <v>0.0032</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0108</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="82">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>WAT_PS_NEW</t>
+          <t>WAT_HY_NEW</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3905,38 +3905,38 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>WH_ST_EXISTING</t>
+          <t>WAT_PS_NEW</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>0.0043</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.0064</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0051</v>
+        <v>0.0136</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0212</v>
+        <v>0.0269</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0039</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="84">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>WIND-LAND-C8_NEW</t>
+          <t>WH_ST_EXISTING</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3960,25 +3960,25 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.007900000000000001</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0274</v>
+        <v>0.0051</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0688</v>
+        <v>0.0212</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0204</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="85">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WND_WT_EXISTING</t>
+          <t>WIND-LAND-C8_NEW</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -4002,73 +4002,73 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0.006</v>
+        <v>0.0274</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0137</v>
+        <v>0.0688</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0032</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>R2-R1</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSMISSION_INTERREGIONAL</t>
+          <t>WND_WT_EXISTING</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0801</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0801</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0801</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0801</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0801</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0801</v>
+        <v>0.006</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0801</v>
+        <v>0.0137</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0801</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0801</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>R2-R3</t>
+          <t>R2-R1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4077,76 +4077,76 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0143</v>
+        <v>0.0801</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0143</v>
+        <v>0.0801</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0143</v>
+        <v>0.0801</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0143</v>
+        <v>0.0801</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0143</v>
+        <v>0.0801</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0143</v>
+        <v>0.0801</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0143</v>
+        <v>0.0801</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0022</v>
+        <v>0.0125</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0143</v>
+        <v>0.0801</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0143</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R2-R3</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BATT_2H_NEW</t>
+          <t>TRANSMISSION_INTERREGIONAL</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0031</v>
+        <v>0.0143</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0041</v>
+        <v>0.0143</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0056</v>
+        <v>0.0143</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0062</v>
+        <v>0.0143</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0062</v>
+        <v>0.0143</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0059</v>
+        <v>0.0143</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0059</v>
+        <v>0.0143</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0005</v>
+        <v>0.0022</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0058</v>
+        <v>0.0143</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0061</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="89">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BATT_4H_NEW</t>
+          <t>BATT_2H_NEW</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BATT_6H_NEW</t>
+          <t>BATT_4H_NEW</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BATT_8H_NEW</t>
+          <t>BATT_6H_NEW</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -4283,38 +4283,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BIOMASS_CC90_NEW</t>
+          <t>BATT_8H_NEW</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="93">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BIOMASS_NEW</t>
+          <t>BIOMASS_CC90_NEW</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BIT_ST_EXISTING</t>
+          <t>BIOMASS_NEW</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BLQ_ST_EXISTING</t>
+          <t>BIT_ST_EXISTING</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CO2_STORAGE</t>
+          <t>BLQ_ST_EXISTING</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -4467,13 +4467,13 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0089</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>COAL_95CC_NEW</t>
+          <t>CO2_STORAGE</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4509,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="98">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>COAL_99CC_NEW</t>
+          <t>COAL_95CC_NEW</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>COAL_NEW</t>
+          <t>COAL_99CC_NEW</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DFO_CC_EXISTING</t>
+          <t>COAL_NEW</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DFO_GT_EXISTING</t>
+          <t>DFO_CC_EXISTING</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DFO_IC_EXISTING</t>
+          <t>DFO_GT_EXISTING</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DISTRIBUTION</t>
+          <t>DFO_IC_EXISTING</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4761,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0089</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FT_BIOMASS</t>
+          <t>DISTRIBUTION</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -4803,13 +4803,13 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="105">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FT_COAL</t>
+          <t>FT_BIOMASS</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FT_NG</t>
+          <t>FT_COAL</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FT_NUCLEAR</t>
+          <t>FT_NG</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FT_PETROLEUM</t>
+          <t>FT_NUCLEAR</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LFG_GT_EXISTING</t>
+          <t>FT_PETROLEUM</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LFG_IC_EXISTING</t>
+          <t>LFG_GT_EXISTING</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MWH_BA1H_EXISTING</t>
+          <t>LFG_IC_EXISTING</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MWH_BA2H_EXISTING</t>
+          <t>MWH_BA1H_EXISTING</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NG_CC_EXISTING</t>
+          <t>MWH_BA2H_EXISTING</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CC_95CC_NEW</t>
+          <t>NG_CC_EXISTING</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CC_97CC_NEW</t>
+          <t>NG_F-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CC_NEW</t>
+          <t>NG_F-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NG_F-FRAME_CT_NEW</t>
+          <t>NG_F-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NG_GT_EXISTING</t>
+          <t>NG_F-FRAME_CT_NEW</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NG_H-FRAME_CC_95CC_NEW</t>
+          <t>NG_GT_EXISTING</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NG_H-FRAME_CC_97CC_NEW</t>
+          <t>NG_H-FRAME_CC_95CC_NEW</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NG_H-FRAME_CC_NEW</t>
+          <t>NG_H-FRAME_CC_97CC_NEW</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NG_ST_EXISTING</t>
+          <t>NG_H-FRAME_CC_NEW</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NUCLEAR-AP1000_NEW</t>
+          <t>NG_ST_EXISTING</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NUCLEAR-SMR_NEW</t>
+          <t>NUCLEAR-AP1000_NEW</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NUC_ST_EXISTING</t>
+          <t>NUCLEAR-SMR_NEW</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>OBG_IC_EXISTING</t>
+          <t>NUC_ST_EXISTING</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PV-COMMERCIAL_NEW</t>
+          <t>OBG_IC_EXISTING</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PV-RESIDENTIAL_NEW</t>
+          <t>PV-COMMERCIAL_NEW</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PV-UTILITY_NEW</t>
+          <t>PV-RESIDENTIAL_NEW</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SUN_PV_EXISTING</t>
+          <t>PV-UTILITY_NEW</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSMISSION_REGIONAL</t>
+          <t>SUN_PV_EXISTING</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5937,13 +5937,13 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0089</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -5963,38 +5963,38 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>WAT_HY_EXISTING</t>
+          <t>TRANSMISSION_REGIONAL</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.0023</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0052</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0059</v>
+        <v>0.0003</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0057</v>
+        <v>0.003</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0056</v>
+        <v>0.0089</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0048</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0058</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="133">
@@ -6005,35 +6005,35 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>WAT_HY_NEW</t>
+          <t>WAT_HY_EXISTING</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.0027</v>
+        <v>0.0023</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0035</v>
+        <v>0.0031</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0049</v>
+        <v>0.0046</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0056</v>
+        <v>0.0052</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0058</v>
+        <v>0.0059</v>
       </c>
       <c r="H133" t="n">
         <v>0.0057</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0057</v>
+        <v>0.0056</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0005</v>
+        <v>0.0004</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
       <c r="L133" t="n">
         <v>0.0058</v>
@@ -6047,23 +6047,23 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>WAT_PS_EXISTING</t>
+          <t>WAT_HY_NEW</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.0017</v>
+        <v>0.0027</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0026</v>
+        <v>0.0035</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0037</v>
+        <v>0.0049</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0042</v>
+        <v>0.0056</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0064</v>
+        <v>0.0058</v>
       </c>
       <c r="H134" t="n">
         <v>0.0057</v>
@@ -6072,13 +6072,13 @@
         <v>0.0057</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0039</v>
+        <v>0.0052</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0061</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="135">
@@ -6089,23 +6089,23 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>WAT_PS_NEW</t>
+          <t>WAT_PS_EXISTING</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.0027</v>
+        <v>0.0017</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0035</v>
+        <v>0.0026</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0049</v>
+        <v>0.0037</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0056</v>
+        <v>0.0042</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0058</v>
+        <v>0.0064</v>
       </c>
       <c r="H135" t="n">
         <v>0.0057</v>
@@ -6114,13 +6114,13 @@
         <v>0.0057</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0005</v>
+        <v>0.0003</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0052</v>
+        <v>0.0039</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0058</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="136">
@@ -6131,38 +6131,38 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>WDS_ST_EXISTING</t>
+          <t>WAT_PS_NEW</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>0.0035</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>0.0052</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="137">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>WIND-LAND-C8_NEW</t>
+          <t>WDS_ST_EXISTING</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -6192,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -6204,90 +6204,132 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>R3-R1</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSMISSION_INTERREGIONAL</t>
+          <t>WIND-LAND-C8_NEW</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.0207</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0207</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0207</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0207</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0207</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0207</v>
+        <v>0.0001</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0207</v>
+        <v>0.0007</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0207</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0207</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>R3-R1</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TRANSMISSION_INTERREGIONAL</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.0207</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
           <t>R3-R2</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>TRANSMISSION_INTERREGIONAL</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="C140" t="n">
         <v>0.0143</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D140" t="n">
         <v>0.0143</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E140" t="n">
         <v>0.0143</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F140" t="n">
         <v>0.0143</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G140" t="n">
         <v>0.0143</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H140" t="n">
         <v>0.0143</v>
       </c>
-      <c r="I139" t="n">
+      <c r="I140" t="n">
         <v>0.0143</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J140" t="n">
         <v>0.0022</v>
       </c>
-      <c r="K139" t="n">
+      <c r="K140" t="n">
         <v>0.0143</v>
       </c>
-      <c r="L139" t="n">
+      <c r="L140" t="n">
         <v>0.0143</v>
       </c>
     </row>

--- a/CreateDB_NC/OutputData/PercentageHurricaneDamage.xlsx
+++ b/CreateDB_NC/OutputData/PercentageHurricaneDamage.xlsx
@@ -1767,34 +1767,34 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.0463</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.1158</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.2501</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.315</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.3589</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.4025</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4258</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.0108</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.2717</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.3782</v>
       </c>
     </row>
     <row r="33">

--- a/CreateDB_NC/OutputData/PercentageHurricaneDamage.xlsx
+++ b/CreateDB_NC/OutputData/PercentageHurricaneDamage.xlsx
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>WH_ST_EXISTING</t>
+          <t>WDS_ST_EXISTING</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3924,10 +3924,10 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0051</v>
+        <v>0.0026</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0212</v>
+        <v>0.0091</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0039</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="84">
